--- a/Graphics.xlsx
+++ b/Graphics.xlsx
@@ -8,81 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smb/Desktop/IPCV-CW-I-Shape-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB6C7D-50D5-D74B-891C-24E99DD8EDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9C9190-6D26-E847-89F5-CE6586969D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="25100" windowHeight="17440" xr2:uid="{0618B5C8-9E21-D941-BF86-50C6C4C1CE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$11:$G$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$12:$G$12</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$11:$G$11</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$12:$G$12</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$B$11:$G$11</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$B$12:$G$12</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$B$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$B$11:$G$11</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$B$12:$G$12</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$B$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$B$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$B$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$B$11:$G$11</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$B$12:$G$12</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$B$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$B$9:$G$9</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$B$10:$G$10</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$B$11:$G$11</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$B$12:$G$12</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$B$8:$G$8</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$B$9:$G$9</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$10</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$11</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$12</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$B$10:$G$10</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$B$11:$G$11</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$B$12:$G$12</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$B$8:$G$8</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$B$9:$G$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2843,7 +2777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670453DB-56D9-CA4A-96A8-1FB8121CF097}">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="134" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
